--- a/DecisionTreePrediction.xlsx
+++ b/DecisionTreePrediction.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
-  <si>
-    <t>index</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>height</t>
   </si>
@@ -875,13 +872,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FM2"/>
+  <dimension ref="A1:FL2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:169">
+    <row r="1" spans="1:168">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1383,478 +1380,475 @@
       <c r="FL1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="FM1" s="1" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="2" spans="1:169">
+    <row r="2" spans="1:168">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="C2">
-        <v>164</v>
-      </c>
-      <c r="D2">
         <v>70</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="b">
+      <c r="F2">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0.05</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>21</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U2" t="b">
-        <v>0</v>
-      </c>
-      <c r="V2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0.05</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
       <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
         <v>1</v>
       </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>0</v>
-      </c>
-      <c r="BS2">
-        <v>0</v>
-      </c>
-      <c r="BT2">
-        <v>0</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2">
-        <v>0</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2">
-        <v>0</v>
-      </c>
-      <c r="BZ2">
-        <v>0</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2">
-        <v>0</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2">
-        <v>0</v>
-      </c>
-      <c r="CE2">
-        <v>0</v>
-      </c>
-      <c r="CF2">
-        <v>0</v>
-      </c>
-      <c r="CG2">
-        <v>0</v>
-      </c>
-      <c r="CH2">
-        <v>0</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2">
-        <v>0</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
-      </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
-      </c>
-      <c r="CP2">
-        <v>0</v>
-      </c>
-      <c r="CQ2">
-        <v>0</v>
-      </c>
-      <c r="CR2">
-        <v>0</v>
-      </c>
-      <c r="CS2">
-        <v>0</v>
-      </c>
-      <c r="CT2">
-        <v>0</v>
-      </c>
-      <c r="CU2">
-        <v>0</v>
-      </c>
-      <c r="CV2">
-        <v>0</v>
-      </c>
-      <c r="CW2">
-        <v>0</v>
-      </c>
-      <c r="CX2">
-        <v>0</v>
-      </c>
-      <c r="CY2">
-        <v>0</v>
-      </c>
-      <c r="CZ2">
-        <v>0</v>
-      </c>
-      <c r="DA2">
-        <v>0</v>
-      </c>
-      <c r="DB2">
-        <v>0</v>
-      </c>
-      <c r="DC2">
-        <v>0</v>
-      </c>
-      <c r="DD2">
-        <v>0</v>
-      </c>
-      <c r="DE2">
-        <v>0</v>
-      </c>
-      <c r="DF2">
-        <v>0</v>
-      </c>
-      <c r="DG2">
-        <v>0</v>
-      </c>
-      <c r="DH2">
-        <v>0</v>
-      </c>
-      <c r="DI2">
-        <v>0</v>
-      </c>
-      <c r="DJ2">
-        <v>0</v>
-      </c>
-      <c r="DK2">
-        <v>0</v>
-      </c>
-      <c r="DL2">
-        <v>0</v>
-      </c>
-      <c r="DM2">
-        <v>0</v>
-      </c>
-      <c r="DN2">
-        <v>0</v>
-      </c>
       <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
+      <c r="DQ2">
         <v>1</v>
       </c>
-      <c r="DP2">
-        <v>0</v>
-      </c>
-      <c r="DQ2">
-        <v>0</v>
-      </c>
       <c r="DR2">
+        <v>0</v>
+      </c>
+      <c r="DS2">
+        <v>0</v>
+      </c>
+      <c r="DT2">
+        <v>0</v>
+      </c>
+      <c r="DU2">
+        <v>0</v>
+      </c>
+      <c r="DV2">
+        <v>0</v>
+      </c>
+      <c r="DW2">
+        <v>0</v>
+      </c>
+      <c r="DX2">
+        <v>0</v>
+      </c>
+      <c r="DY2">
+        <v>0</v>
+      </c>
+      <c r="DZ2">
+        <v>0</v>
+      </c>
+      <c r="EA2">
+        <v>0</v>
+      </c>
+      <c r="EB2">
+        <v>0</v>
+      </c>
+      <c r="EC2">
+        <v>0</v>
+      </c>
+      <c r="ED2">
+        <v>0</v>
+      </c>
+      <c r="EE2">
+        <v>0</v>
+      </c>
+      <c r="EF2">
+        <v>0</v>
+      </c>
+      <c r="EG2">
+        <v>0</v>
+      </c>
+      <c r="EH2">
         <v>1</v>
       </c>
-      <c r="DS2">
-        <v>0</v>
-      </c>
-      <c r="DT2">
-        <v>0</v>
-      </c>
-      <c r="DU2">
-        <v>0</v>
-      </c>
-      <c r="DV2">
-        <v>0</v>
-      </c>
-      <c r="DW2">
-        <v>0</v>
-      </c>
-      <c r="DX2">
-        <v>0</v>
-      </c>
-      <c r="DY2">
-        <v>0</v>
-      </c>
-      <c r="DZ2">
-        <v>0</v>
-      </c>
-      <c r="EA2">
-        <v>0</v>
-      </c>
-      <c r="EB2">
-        <v>0</v>
-      </c>
-      <c r="EC2">
-        <v>0</v>
-      </c>
-      <c r="ED2">
-        <v>0</v>
-      </c>
-      <c r="EE2">
-        <v>0</v>
-      </c>
-      <c r="EF2">
-        <v>0</v>
-      </c>
-      <c r="EG2">
-        <v>0</v>
-      </c>
-      <c r="EH2">
-        <v>0</v>
-      </c>
       <c r="EI2">
+        <v>0</v>
+      </c>
+      <c r="EJ2">
+        <v>0</v>
+      </c>
+      <c r="EK2">
+        <v>0</v>
+      </c>
+      <c r="EL2">
+        <v>0</v>
+      </c>
+      <c r="EM2">
+        <v>0</v>
+      </c>
+      <c r="EN2">
+        <v>0</v>
+      </c>
+      <c r="EO2">
+        <v>0</v>
+      </c>
+      <c r="EP2">
+        <v>0</v>
+      </c>
+      <c r="EQ2">
         <v>1</v>
       </c>
-      <c r="EJ2">
-        <v>0</v>
-      </c>
-      <c r="EK2">
-        <v>0</v>
-      </c>
-      <c r="EL2">
-        <v>0</v>
-      </c>
-      <c r="EM2">
-        <v>0</v>
-      </c>
-      <c r="EN2">
-        <v>0</v>
-      </c>
-      <c r="EO2">
-        <v>0</v>
-      </c>
-      <c r="EP2">
-        <v>0</v>
-      </c>
-      <c r="EQ2">
-        <v>0</v>
-      </c>
       <c r="ER2">
+        <v>0</v>
+      </c>
+      <c r="ES2">
+        <v>0</v>
+      </c>
+      <c r="ET2">
+        <v>0</v>
+      </c>
+      <c r="EU2">
+        <v>0</v>
+      </c>
+      <c r="EV2">
+        <v>0</v>
+      </c>
+      <c r="EW2">
+        <v>0</v>
+      </c>
+      <c r="EX2">
         <v>1</v>
-      </c>
-      <c r="ES2">
-        <v>0</v>
-      </c>
-      <c r="ET2">
-        <v>0</v>
-      </c>
-      <c r="EU2">
-        <v>0</v>
-      </c>
-      <c r="EV2">
-        <v>0</v>
-      </c>
-      <c r="EW2">
-        <v>0</v>
-      </c>
-      <c r="EX2">
-        <v>0</v>
       </c>
       <c r="EY2">
         <v>1</v>
       </c>
       <c r="EZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA2">
         <v>0</v>
@@ -1889,10 +1883,7 @@
       <c r="FK2">
         <v>0</v>
       </c>
-      <c r="FL2">
-        <v>0</v>
-      </c>
-      <c r="FM2" t="b">
+      <c r="FL2" t="b">
         <v>1</v>
       </c>
     </row>
